--- a/ProjectCore/ProjectData/GroupData.xlsx
+++ b/ProjectCore/ProjectData/GroupData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15132" windowHeight="9300"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="15135" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Group" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t xml:space="preserve">14k1 </t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>13k3</t>
   </si>
 </sst>
 </file>
@@ -527,20 +533,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="50" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="25.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="25.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,7 +557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -562,7 +568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -573,7 +579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -584,7 +590,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -595,7 +601,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -606,7 +612,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -617,7 +623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -625,6 +631,17 @@
         <v>18</v>
       </c>
       <c r="C8" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2">
         <v>40</v>
       </c>
     </row>
